--- a/TfidfVectorizer_sklearn.xlsx
+++ b/TfidfVectorizer_sklearn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tutorials\Developer\Stackoverflow_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D248B45F-6905-4451-82E9-9057D6062C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D648FEC-F9A1-48AE-B953-C30E63199536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F1FFB24D-618E-4275-B616-D46E3050EA44}"/>
   </bookViews>
